--- a/Lab3/Lab3.xlsx
+++ b/Lab3/Lab3.xlsx
@@ -1,26 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\SAPR\Lab3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C0A52-CA8B-494A-9472-FFB5FE0CD721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$9:$D$9</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$13</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$15</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$13</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Задача 1</t>
+  </si>
+  <si>
+    <t>Станок</t>
+  </si>
+  <si>
+    <t>Длительность обработки детали</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Фонд времени</t>
+  </si>
+  <si>
+    <t>Цена за 1д</t>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <t>Станок 1</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Станок 2</t>
+  </si>
+  <si>
+    <t>Станок 3</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +127,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +460,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="D9">
+        <v>1.0526315789473681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>B4*B9+C4*C9+D4*D9</f>
+        <v>220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f>E4</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>B5*B9+C5*C9+D5*D9</f>
+        <v>400</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>E5</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>B6*B9+C6*C9+D6*D9</f>
+        <v>88.421052631578959</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f>E6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>B7*B9+C7*C9+D7*D9</f>
+        <v>705.26315789473688</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab3/Lab3.xlsx
+++ b/Lab3/Lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\SAPR\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C0A52-CA8B-494A-9472-FFB5FE0CD721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB1FE32-3D9D-4630-B12F-F8A054A8B0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Задача 1</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Задача 2</t>
+  </si>
+  <si>
+    <t>Ресурсы</t>
+  </si>
+  <si>
+    <t>Энергия</t>
+  </si>
+  <si>
+    <t>Материалы</t>
+  </si>
+  <si>
+    <t>Труд</t>
+  </si>
+  <si>
+    <t>Затраты ресурсов на единицу изделия</t>
+  </si>
+  <si>
+    <t>Запасы ресурсов</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
   </si>
 </sst>
 </file>
@@ -175,12 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +661,186 @@
         <v>705.26315789473688</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f>B21*B26+C21*C26+D21*D26+E21*E26</f>
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f>F21</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f>B22*B26+C22*C26+D22*D26+E22*E26</f>
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f>F22</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <f>B23*B26+C23*C26+D23*D26+E23*E26</f>
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f>B24*B26+C24*C26+D24*D26+E24*E26</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lab3/Lab3.xlsx
+++ b/Lab3/Lab3.xlsx
@@ -1,57 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\SAPR\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Desktop\САПР\SAPR\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB1FE32-3D9D-4630-B12F-F8A054A8B0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C244E21B-9E9A-4E23-BEEB-99382EE680F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задача 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$9:$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Задача 1'!$B$9:$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Задача 2'!$B$9:$E$9</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$13</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Задача 1'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Задача 2'!$B$11:$B$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Задача 1'!$B$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Задача 1'!$B$13</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$15</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Задача 1'!$B$15</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задача 2'!$B$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Задача 1'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Задача 2'!$D$11:$D$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Задача 1'!$D$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Задача 1'!$D$13</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -63,7 +94,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -199,16 +229,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="A18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,188 +690,237 @@
         <v>705.26315789473688</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
+      <c r="A19" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>30</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>40</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>25</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <f>B21*B26+C21*C26+D21*D26+E21*E26</f>
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <f>F21</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <f>B22*B26+C22*C26+D22*D26+E22*E26</f>
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <f>F22</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <f>B23*B26+C23*C26+D23*D26+E23*E26</f>
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <f>B24*B26+C24*C26+D24*D26+E24*E26</f>
-        <v>10</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BFA068-5551-40A5-8F6C-DF2BBEBA0C1F}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <f>B4*B9+C4*C9+D4*D9+E4*E9</f>
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f>F4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <f>B5*B9+C5*C9+D5*D9+E5*E9</f>
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>F5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <f>B6*B9+C6*C9+D6*D9+E6*E9</f>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>B7*B9+C7*C9+D7*D9+E7*E9</f>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab3/Lab3.xlsx
+++ b/Lab3/Lab3.xlsx
@@ -8,81 +8,273 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Desktop\САПР\SAPR\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C244E21B-9E9A-4E23-BEEB-99382EE680F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804E18E-6376-4FDA-9131-26A57238AFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24885" yWindow="1935" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задача 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Задача 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задача 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Задача 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Задача 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Задача 7 " sheetId="7" r:id="rId7"/>
+    <sheet name="Задача 8 " sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Задача 1'!$B$9:$D$9</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Задача 2'!$B$9:$E$9</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Задача 3'!$B$9:$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Задача 4'!$B$7:$C$7</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Задача 5'!$B$9:$E$9</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Задача 6'!$C$14:$F$14</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Задача 7 '!$B$12:$D$12</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Задача 8 '!$B$11:$C$11</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Задача 1'!$B$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Задача 2'!$B$11:$B$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Задача 3'!$B$11:$B$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Задача 4'!$B$10:$B$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Задача 5'!$B$13:$B$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Задача 6'!$C$19:$C$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Задача 7 '!$B$16:$B$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Задача 8 '!$B$15:$B$17</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Задача 1'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Задача 7 '!$B$18:$B$20</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Задача 1'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Задача 7 '!$B$21:$B$22</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Задача 1'!$B$15</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Задача 2'!$B$15</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Задача 3'!$B$15</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Задача 4'!$C$15</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Задача 5'!$B$19</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 6'!$B$24</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Задача 7 '!$B$25</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Задача 8 '!$B$20</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Задача 1'!$D$11</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Задача 2'!$D$11:$D$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Задача 3'!$D$11:$D$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Задача 4'!$D$10:$D$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'Задача 5'!$D$13:$D$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Задача 6'!$E$19:$E$20</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Задача 7 '!$D$16:$D$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'Задача 8 '!$D$15:$D$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Задача 1'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Задача 7 '!$D$18:$D$20</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Задача 1'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">'Задача 7 '!$D$21:$D$22</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -101,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Задача 1</t>
   </si>
@@ -167,13 +359,148 @@
   </si>
   <si>
     <t>Прибыль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расход материалов на производство одной запасной части, кг </t>
+  </si>
+  <si>
+    <t>Запас ресурсов, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибыль от реализации одной запасной части  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решение </t>
+  </si>
+  <si>
+    <t>Ресурс 1</t>
+  </si>
+  <si>
+    <t>Ресурс 2</t>
+  </si>
+  <si>
+    <t>Ресурс 3</t>
+  </si>
+  <si>
+    <t>Сырье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расход сырья на 1 единицу продукции </t>
+  </si>
+  <si>
+    <t>П1</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решения </t>
+  </si>
+  <si>
+    <t>Цены</t>
+  </si>
+  <si>
+    <t>целевая функция</t>
+  </si>
+  <si>
+    <t>Норма расходов</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">целевая функция </t>
+  </si>
+  <si>
+    <t>Станки</t>
+  </si>
+  <si>
+    <t>Стоимость часа</t>
+  </si>
+  <si>
+    <t>работы</t>
+  </si>
+  <si>
+    <t>Время обработки, часы</t>
+  </si>
+  <si>
+    <t>Максимальная нагрузка, часы</t>
+  </si>
+  <si>
+    <t>Цена единицы изделия</t>
+  </si>
+  <si>
+    <t>Себестоимость</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Расход материала на единицу изделия</t>
+  </si>
+  <si>
+    <t>Доступно</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>Произвести не менее (штук)</t>
+  </si>
+  <si>
+    <t>Доход на единицу изделия</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Сборочная линия</t>
+  </si>
+  <si>
+    <t>Количество минут, затрачиваемое на сборку</t>
+  </si>
+  <si>
+    <t>одного изделия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничение </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +517,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +557,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -225,16 +572,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="A18:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,39 +1298,95 @@
         <v>705.26315789473688</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BFA068-5551-40A5-8F6C-DF2BBEBA0C1F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -923,4 +1587,1166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218692FE-F0FB-4A49-899F-80F5B7D0770E}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>300</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>800</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>200</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B3*B9+C3*C9+D3*D9</f>
+        <v>1200</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <f>E3</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8">
+        <f>B4*B9+C4*C9+D4*D9</f>
+        <v>300</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <f>E4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B5*B9+C5*C9+D5*D9</f>
+        <v>800</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <f>E5</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B6*B9+C6*C9+D6*D9</f>
+        <v>2200</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559F871-FB38-4DA4-B3E8-FAB356E47631}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2.6</v>
+      </c>
+      <c r="C7">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>B3*B7+C3*C7</f>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>B4*B7+C4*C7</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B7-C7</f>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>C7</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <f>'Задача 4'!B5*'Задача 4'!B7+'Задача 4'!C5*'Задача 4'!C7</f>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE683F-BC1C-4B1D-AD23-ED3E38F0F0F3}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>449.99999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B3*B9+C3*C9+D3*D9+E3*E9</f>
+        <v>1799.9999999999998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <f>F3</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B4*B9+C4*+C9+D4*D9+E4*E9</f>
+        <v>1349.9999999999998</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <f>F4</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B5*B9+C5*C9+D5*D9+E5*E9</f>
+        <v>899.99999999999989</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <f>F5</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>B6*B9+C6*C9+D6*D9+E6*E9</f>
+        <v>4499.9999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7035BA8-CBCA-419F-992B-B0D473F96144}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2</v>
+      </c>
+      <c r="G3" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13">
+        <v>75</v>
+      </c>
+      <c r="D5" s="13">
+        <v>70</v>
+      </c>
+      <c r="E5" s="13">
+        <v>55</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>C5-C3*B3-C4*B4</f>
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>D5-D3*B3-D4*B4</f>
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f>E5-E3*B3-E4*B4</f>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f>F5-F3*B3-F4*B4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="20">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20">
+        <v>148</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>C3*C14+D3*D14+E3*E14+F3*F14</f>
+        <v>500</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f>G3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>C4*C14+D4*D14+E4*E14+F4*F14</f>
+        <v>380</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f>G4</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>C9*C14+D9*D14+E9*E14+F9*F14</f>
+        <v>5560</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82631BC-87AC-4815-A1CA-C0BC0573562E}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22">
+        <v>5</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="15">
+        <v>200</v>
+      </c>
+      <c r="C5" s="15">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15">
+        <v>150</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="13">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>50</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>324.32432432432432</v>
+      </c>
+      <c r="C12">
+        <v>216.21621621621622</v>
+      </c>
+      <c r="D12">
+        <v>540.54054054054052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B3*B12+C3*C12+D3*D12</f>
+        <v>4000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f>E3</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>-B4*B12+C4*C12+D4*D12</f>
+        <v>2918.9189189189192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>E4</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B12</f>
+        <v>324.32432432432432</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <f>B5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>C12</f>
+        <v>216.21621621621622</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <f>C5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>D12</f>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <f>D5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>3*C12</f>
+        <v>648.64864864864865</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <f>2*B12</f>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>2*D12</f>
+        <v>1081.081081081081</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <f>5*C12</f>
+        <v>1081.081081081081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>B7*B12+C7*C12+D7*D12</f>
+        <v>41081.08108108108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CE638F-127F-4EC6-9B12-5111E43CE1EE}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22">
+        <v>6</v>
+      </c>
+      <c r="C4" s="38">
+        <v>4</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="32">
+        <v>6</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>50.88</v>
+      </c>
+      <c r="C11">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B4*B11+C4*C11</f>
+        <v>432</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f>480*0.9</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B5*B11+C5*C11</f>
+        <v>412.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f>480*0.86</f>
+        <v>412.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>B6*B11+C6*C11</f>
+        <v>393.6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>480*0.88</f>
+        <v>422.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>D15-(B4*B11+C4*C11)+D16-(B5*B11+C5*C11)+D17-(B6*B11+C6*C11)</f>
+        <v>28.799999999999955</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>